--- a/REGULAR/OJT/NEW DONE/HAYAG, JERMAINE JOY.xlsx
+++ b/REGULAR/OJT/NEW DONE/HAYAG, JERMAINE JOY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39805892-1CA4-4F55-86D1-B7135D504AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -318,11 +317,17 @@
   <si>
     <t>8/26,28,30 HD</t>
   </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/15,30,31/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -701,6 +706,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -713,20 +727,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1423,7 +1428,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1471,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1535,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1595,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1661,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1724,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1822,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1876,7 +1881,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1946,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1989,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2064,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2250,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2316,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2374,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2440,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2496,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2571,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2614,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2675,7 +2680,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2736,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2834,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2897,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,25 +2963,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2988,25 +2993,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3018,13 +3023,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3033,14 +3038,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3344,7 +3349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3354,7 +3359,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3362,34 +3367,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A69" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3401,16 +3406,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3421,16 +3426,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3441,18 +3446,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3460,7 +3465,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3473,24 +3478,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3525,7 +3530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3534,7 +3539,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>50.5</v>
+        <v>48.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3544,12 +3549,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>75</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>63</v>
       </c>
@@ -3571,7 +3576,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3591,7 +3596,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3611,7 +3616,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3631,7 +3636,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3657,7 +3662,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3681,7 +3686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3701,7 +3706,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3721,7 +3726,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3741,7 +3746,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3761,7 +3766,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3781,7 +3786,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3801,7 +3806,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3825,7 +3830,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>68</v>
       </c>
@@ -3843,7 +3848,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3863,7 +3868,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3883,7 +3888,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3903,7 +3908,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3927,7 +3932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>76</v>
@@ -3947,7 +3952,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3967,7 +3972,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3987,7 +3992,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -4007,7 +4012,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -4033,7 +4038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -4059,7 +4064,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -4079,7 +4084,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -4099,7 +4104,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -4119,7 +4124,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>69</v>
       </c>
@@ -4137,7 +4142,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -4157,7 +4162,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -4177,7 +4182,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -4197,7 +4202,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -4221,7 +4226,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -4241,7 +4246,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -4261,7 +4266,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -4281,7 +4286,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -4301,7 +4306,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -4321,7 +4326,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -4341,7 +4346,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4361,7 +4366,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4385,7 +4390,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>70</v>
       </c>
@@ -4403,7 +4408,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4423,7 +4428,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4443,7 +4448,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4463,7 +4468,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4483,7 +4488,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4503,7 +4508,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4523,7 +4528,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4543,7 +4548,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4563,7 +4568,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4583,7 +4588,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4603,7 +4608,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4623,7 +4628,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4647,7 +4652,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>71</v>
       </c>
@@ -4665,7 +4670,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4685,7 +4690,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4705,7 +4710,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="49"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4731,7 +4736,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4751,7 +4756,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4777,7 +4782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4797,7 +4802,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4817,7 +4822,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4837,7 +4842,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4857,7 +4862,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4877,7 +4882,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44896</v>
       </c>
@@ -4923,7 +4928,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>89</v>
       </c>
@@ -4932,13 +4937,16 @@
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44927</v>
       </c>
@@ -4949,13 +4957,16 @@
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13"/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A77,1)</f>
         <v>44958</v>
@@ -4971,7 +4982,10 @@
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13"/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
@@ -4979,23 +4993,34 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" ref="A79:A125" si="0">EDATE(A78,1)</f>
         <v>44986</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="39"/>
+      <c r="B79" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="39">
+        <v>3</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13"/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K79" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="0"/>
         <v>45017</v>
@@ -5005,13 +5030,16 @@
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13"/>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -5021,13 +5049,16 @@
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13"/>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>45078</v>
@@ -5037,13 +5068,16 @@
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13"/>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -5053,13 +5087,16 @@
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13"/>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -5069,13 +5106,16 @@
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -5085,13 +5125,16 @@
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -5101,13 +5144,16 @@
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13"/>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -5117,13 +5163,16 @@
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -5133,13 +5182,16 @@
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -5149,13 +5201,16 @@
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>45323</v>
@@ -5165,13 +5220,16 @@
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="0"/>
         <v>45352</v>
@@ -5181,13 +5239,16 @@
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="0"/>
         <v>45383</v>
@@ -5197,13 +5258,16 @@
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
         <v>45413</v>
@@ -5213,13 +5277,16 @@
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13"/>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>45444</v>
@@ -5229,13 +5296,16 @@
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
         <v>45474</v>
@@ -5245,13 +5315,16 @@
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13"/>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
         <v>45505</v>
@@ -5261,13 +5334,16 @@
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>45536</v>
@@ -5277,13 +5353,16 @@
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13"/>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
         <v>45566</v>
@@ -5293,13 +5372,16 @@
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
         <v>45597</v>
@@ -5309,13 +5391,16 @@
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13"/>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="0"/>
         <v>45627</v>
@@ -5334,7 +5419,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="0"/>
         <v>45658</v>
@@ -5353,7 +5438,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="0"/>
         <v>45689</v>
@@ -5372,7 +5457,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="0"/>
         <v>45717</v>
@@ -5391,7 +5476,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>45748</v>
@@ -5410,7 +5495,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="0"/>
         <v>45778</v>
@@ -5429,7 +5514,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="0"/>
         <v>45809</v>
@@ -5448,7 +5533,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
         <v>45839</v>
@@ -5467,7 +5552,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="0"/>
         <v>45870</v>
@@ -5486,7 +5571,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="0"/>
         <v>45901</v>
@@ -5505,7 +5590,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
         <v>45931</v>
@@ -5524,7 +5609,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
         <v>45962</v>
@@ -5543,7 +5628,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
         <v>45992</v>
@@ -5562,7 +5647,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>46023</v>
@@ -5581,7 +5666,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="0"/>
         <v>46054</v>
@@ -5600,7 +5685,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="0"/>
         <v>46082</v>
@@ -5619,7 +5704,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>46113</v>
@@ -5638,7 +5723,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="0"/>
         <v>46143</v>
@@ -5657,7 +5742,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="0"/>
         <v>46174</v>
@@ -5676,7 +5761,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>46204</v>
@@ -5695,7 +5780,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>46235</v>
@@ -5714,7 +5799,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>46266</v>
@@ -5733,7 +5818,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="0"/>
         <v>46296</v>
@@ -5752,7 +5837,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>46327</v>
@@ -5771,7 +5856,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>46357</v>
@@ -5790,7 +5875,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="0"/>
         <v>46388</v>
@@ -5809,7 +5894,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5825,7 +5910,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5841,7 +5926,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5857,7 +5942,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5873,7 +5958,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5889,7 +5974,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5905,7 +5990,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5921,7 +6006,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5937,7 +6022,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5953,7 +6038,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -5971,23 +6056,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6010,34 +6095,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1800" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
       <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6049,16 +6134,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6067,16 +6152,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6085,16 +6170,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6102,7 +6187,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6115,24 +6200,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6167,7 +6252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6191,7 +6276,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6213,7 +6298,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>41640</v>
       </c>
@@ -6233,7 +6318,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>41671</v>
       </c>
@@ -6253,7 +6338,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>41699</v>
       </c>
@@ -6273,7 +6358,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>41730</v>
       </c>
@@ -6293,7 +6378,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>41760</v>
       </c>
@@ -6313,7 +6398,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>41791</v>
       </c>
@@ -6333,7 +6418,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>41821</v>
       </c>
@@ -6353,7 +6438,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>41852</v>
       </c>
@@ -6373,7 +6458,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>41883</v>
       </c>
@@ -6393,7 +6478,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>41913</v>
       </c>
@@ -6413,7 +6498,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>41944</v>
       </c>
@@ -6433,7 +6518,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>41974</v>
       </c>
@@ -6457,7 +6542,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -6475,7 +6560,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42005</v>
       </c>
@@ -6495,7 +6580,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>42036</v>
       </c>
@@ -6515,7 +6600,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>42064</v>
       </c>
@@ -6535,7 +6620,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>42095</v>
       </c>
@@ -6555,7 +6640,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>42125</v>
       </c>
@@ -6575,7 +6660,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>42156</v>
       </c>
@@ -6595,7 +6680,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>42186</v>
       </c>
@@ -6615,7 +6700,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>42217</v>
       </c>
@@ -6635,7 +6720,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>42248</v>
       </c>
@@ -6655,7 +6740,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>42278</v>
       </c>
@@ -6675,7 +6760,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>42309</v>
       </c>
@@ -6695,7 +6780,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>42339</v>
       </c>
@@ -6719,7 +6804,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
@@ -6737,7 +6822,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>42370</v>
       </c>
@@ -6763,7 +6848,7 @@
         <v>42372</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>42401</v>
       </c>
@@ -6789,7 +6874,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>49</v>
@@ -6811,7 +6896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>42430</v>
       </c>
@@ -6837,7 +6922,7 @@
         <v>42625</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>50</v>
@@ -6857,7 +6942,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>42461</v>
       </c>
@@ -6877,7 +6962,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>42491</v>
       </c>
@@ -6897,7 +6982,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>42522</v>
       </c>
@@ -6917,7 +7002,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>42552</v>
       </c>
@@ -6937,7 +7022,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>42583</v>
       </c>
@@ -6957,7 +7042,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>42614</v>
       </c>
@@ -6977,7 +7062,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>42644</v>
       </c>
@@ -6997,7 +7082,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>42675</v>
       </c>
@@ -7017,7 +7102,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>42705</v>
       </c>
@@ -7037,7 +7122,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>44</v>
       </c>
@@ -7055,7 +7140,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>42736</v>
       </c>
@@ -7075,7 +7160,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>42767</v>
       </c>
@@ -7101,7 +7186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>42795</v>
       </c>
@@ -7121,7 +7206,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>42826</v>
       </c>
@@ -7145,7 +7230,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>42856</v>
       </c>
@@ -7171,7 +7256,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>58</v>
@@ -7191,7 +7276,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>42887</v>
       </c>
@@ -7215,7 +7300,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>42917</v>
       </c>
@@ -7239,7 +7324,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>42948</v>
       </c>
@@ -7265,7 +7350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>64</v>
@@ -7287,7 +7372,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>65</v>
@@ -7307,7 +7392,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>42979</v>
       </c>
@@ -7331,7 +7416,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>43009</v>
       </c>
@@ -7351,7 +7436,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>43040</v>
       </c>
@@ -7371,7 +7456,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>43070</v>
       </c>
@@ -7395,7 +7480,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>63</v>
       </c>
@@ -7413,7 +7498,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>43191</v>
       </c>
@@ -7435,7 +7520,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>71</v>
       </c>
@@ -7455,7 +7540,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>44593</v>
       </c>
@@ -7479,7 +7564,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -7503,7 +7588,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>48</v>
@@ -7525,7 +7610,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44812</v>
       </c>
@@ -7549,7 +7634,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44910</v>
       </c>
@@ -7573,7 +7658,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>89</v>
       </c>
@@ -7591,7 +7676,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44956</v>
       </c>
@@ -7609,7 +7694,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7625,7 +7710,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7641,7 +7726,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7657,7 +7742,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7673,7 +7758,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7689,7 +7774,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7705,7 +7790,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7721,7 +7806,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7737,7 +7822,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7753,7 +7838,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7769,7 +7854,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7785,7 +7870,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7801,7 +7886,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7817,7 +7902,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7833,7 +7918,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7849,7 +7934,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7865,7 +7950,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7881,7 +7966,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7897,7 +7982,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7913,7 +7998,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7929,7 +8014,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7945,7 +8030,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7961,7 +8046,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7977,7 +8062,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7993,7 +8078,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8009,7 +8094,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8025,7 +8110,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8041,7 +8126,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8057,7 +8142,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8073,7 +8158,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8089,7 +8174,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8105,7 +8190,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8121,7 +8206,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8137,7 +8222,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8153,7 +8238,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8169,7 +8254,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8185,7 +8270,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8201,7 +8286,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8217,7 +8302,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8233,7 +8318,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8249,7 +8334,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8265,7 +8350,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8281,7 +8366,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8297,7 +8382,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8313,7 +8398,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8329,7 +8414,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8345,7 +8430,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8361,7 +8446,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8377,7 +8462,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8393,7 +8478,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8409,7 +8494,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8425,7 +8510,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8441,7 +8526,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8457,7 +8542,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8473,7 +8558,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8489,7 +8574,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8505,7 +8590,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8521,7 +8606,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8537,7 +8622,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8553,7 +8638,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8569,7 +8654,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8585,7 +8670,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8601,7 +8686,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8617,7 +8702,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41"/>
       <c r="B140" s="15"/>
       <c r="C140" s="42"/>
@@ -8648,10 +8733,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8674,7 +8759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8682,21 +8767,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8709,7 +8794,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8738,7 +8823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -8762,17 +8847,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8793,7 +8878,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8820,7 +8905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8846,7 +8931,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8872,7 +8957,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8898,7 +8983,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8924,7 +9009,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8950,7 +9035,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8976,7 +9061,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9002,7 +9087,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9022,7 +9107,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9042,7 +9127,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9062,7 +9147,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9083,7 +9168,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9104,7 +9189,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9125,7 +9210,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9146,7 +9231,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9167,7 +9252,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9188,7 +9273,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9209,7 +9294,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9230,7 +9315,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9251,7 +9336,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9272,7 +9357,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9293,7 +9378,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9314,7 +9399,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9335,7 +9420,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9356,7 +9441,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9377,7 +9462,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9398,7 +9483,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9419,7 +9504,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9440,7 +9525,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9461,7 +9546,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9482,7 +9567,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9491,7 +9576,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9500,7 +9585,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9509,7 +9594,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9518,7 +9603,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9527,7 +9612,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9536,7 +9621,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9545,7 +9630,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9554,7 +9639,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9563,7 +9648,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9572,7 +9657,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9581,7 +9666,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9590,7 +9675,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9599,7 +9684,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9608,7 +9693,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9617,7 +9702,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9626,7 +9711,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9635,7 +9720,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9644,7 +9729,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9653,7 +9738,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9662,7 +9747,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9671,7 +9756,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9680,7 +9765,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9689,7 +9774,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9698,7 +9783,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9707,7 +9792,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9716,7 +9801,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9725,7 +9810,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9734,7 +9819,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9743,7 +9828,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/HAYAG, JERMAINE JOY.xlsx
+++ b/REGULAR/OJT/NEW DONE/HAYAG, JERMAINE JOY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C28ACA-0847-4D5A-ACD2-C10AC02A4DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>PERIOD</t>
   </si>
@@ -327,7 +328,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -706,15 +707,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -727,11 +719,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1428,7 +1429,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1472,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1536,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1596,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1662,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1725,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1823,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1882,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1947,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1990,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2065,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2251,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2317,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2375,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2441,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2497,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2572,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2615,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2680,7 +2681,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2737,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2835,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2898,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2963,25 +2964,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2993,25 +2994,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3023,13 +3024,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3038,14 +3039,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3349,7 +3350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3359,7 +3360,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3367,34 +3368,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
+      <pane ySplit="3696" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3406,16 +3407,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3426,16 +3427,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3446,18 +3447,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3465,7 +3466,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3478,24 +3479,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3554,7 +3555,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>63</v>
       </c>
@@ -3576,7 +3577,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3596,7 +3597,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3616,7 +3617,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3636,7 +3637,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3706,7 +3707,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3726,7 +3727,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3746,7 +3747,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3766,7 +3767,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3786,7 +3787,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3806,7 +3807,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3830,7 +3831,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>68</v>
       </c>
@@ -3848,7 +3849,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3868,7 +3869,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3888,7 +3889,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3908,7 +3909,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>76</v>
@@ -3952,7 +3953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3972,7 +3973,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3992,7 +3993,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -4012,7 +4013,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -4084,7 +4085,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -4104,7 +4105,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -4124,7 +4125,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>69</v>
       </c>
@@ -4142,7 +4143,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -4162,7 +4163,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -4182,7 +4183,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -4202,7 +4203,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -4246,7 +4247,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -4266,7 +4267,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -4286,7 +4287,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -4306,7 +4307,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -4326,7 +4327,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -4346,7 +4347,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4366,7 +4367,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4390,7 +4391,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>70</v>
       </c>
@@ -4408,7 +4409,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4428,7 +4429,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4448,7 +4449,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4468,7 +4469,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4488,7 +4489,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4508,7 +4509,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4528,7 +4529,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4548,7 +4549,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4568,7 +4569,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4588,7 +4589,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4608,7 +4609,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4628,7 +4629,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4652,7 +4653,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="48" t="s">
         <v>71</v>
       </c>
@@ -4670,7 +4671,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4690,7 +4691,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4710,7 +4711,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="49"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4756,7 +4757,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4802,7 +4803,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4822,7 +4823,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4842,7 +4843,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4862,7 +4863,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4882,7 +4883,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44896</v>
       </c>
@@ -4928,7 +4929,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="48" t="s">
         <v>89</v>
       </c>
@@ -4946,7 +4947,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44927</v>
       </c>
@@ -4966,7 +4967,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A77,1)</f>
         <v>44958</v>
@@ -4993,7 +4994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" ref="A79:A125" si="0">EDATE(A78,1)</f>
         <v>44986</v>
@@ -5020,7 +5021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="0"/>
         <v>45017</v>
@@ -5039,7 +5040,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -5058,7 +5059,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>45078</v>
@@ -5077,7 +5078,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -5096,7 +5097,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -5115,7 +5116,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -5134,7 +5135,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -5153,7 +5154,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -5172,7 +5173,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -5191,7 +5192,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -5210,7 +5211,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>45323</v>
@@ -5229,7 +5230,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" si="0"/>
         <v>45352</v>
@@ -5248,7 +5249,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="0"/>
         <v>45383</v>
@@ -5267,7 +5268,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
         <v>45413</v>
@@ -5286,7 +5287,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>45444</v>
@@ -5305,7 +5306,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
         <v>45474</v>
@@ -5324,7 +5325,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
         <v>45505</v>
@@ -5343,7 +5344,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>45536</v>
@@ -5362,7 +5363,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
         <v>45566</v>
@@ -5381,7 +5382,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
         <v>45597</v>
@@ -5400,7 +5401,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="0"/>
         <v>45627</v>
@@ -5419,7 +5420,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="0"/>
         <v>45658</v>
@@ -5438,7 +5439,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="0"/>
         <v>45689</v>
@@ -5457,7 +5458,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="0"/>
         <v>45717</v>
@@ -5476,7 +5477,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>45748</v>
@@ -5495,7 +5496,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="0"/>
         <v>45778</v>
@@ -5514,7 +5515,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="0"/>
         <v>45809</v>
@@ -5533,7 +5534,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
         <v>45839</v>
@@ -5552,7 +5553,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="0"/>
         <v>45870</v>
@@ -5571,7 +5572,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="0"/>
         <v>45901</v>
@@ -5590,7 +5591,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
         <v>45931</v>
@@ -5609,7 +5610,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
         <v>45962</v>
@@ -5628,7 +5629,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
         <v>45992</v>
@@ -5647,7 +5648,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>46023</v>
@@ -5666,7 +5667,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="0"/>
         <v>46054</v>
@@ -5685,7 +5686,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="0"/>
         <v>46082</v>
@@ -5704,7 +5705,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>46113</v>
@@ -5723,7 +5724,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="0"/>
         <v>46143</v>
@@ -5742,7 +5743,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f t="shared" si="0"/>
         <v>46174</v>
@@ -5761,7 +5762,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>46204</v>
@@ -5780,7 +5781,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>46235</v>
@@ -5799,7 +5800,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>46266</v>
@@ -5818,7 +5819,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="0"/>
         <v>46296</v>
@@ -5837,7 +5838,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>46327</v>
@@ -5856,7 +5857,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>46357</v>
@@ -5875,7 +5876,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="0"/>
         <v>46388</v>
@@ -5894,7 +5895,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5910,7 +5911,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5926,7 +5927,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5942,7 +5943,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5958,7 +5959,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5974,7 +5975,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5990,7 +5991,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -6006,7 +6007,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -6022,7 +6023,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -6038,7 +6039,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -6056,23 +6057,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6095,34 +6096,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1800" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="2592" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6134,16 +6135,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6152,16 +6153,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6170,16 +6171,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6187,7 +6188,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6200,24 +6201,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6271,12 +6272,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6298,7 +6299,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>41640</v>
       </c>
@@ -6318,7 +6319,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>41671</v>
       </c>
@@ -6338,7 +6339,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>41699</v>
       </c>
@@ -6358,7 +6359,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>41730</v>
       </c>
@@ -6378,7 +6379,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>41760</v>
       </c>
@@ -6398,7 +6399,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>41791</v>
       </c>
@@ -6418,7 +6419,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>41821</v>
       </c>
@@ -6438,7 +6439,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>41852</v>
       </c>
@@ -6458,7 +6459,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>41883</v>
       </c>
@@ -6478,7 +6479,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>41913</v>
       </c>
@@ -6498,7 +6499,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>41944</v>
       </c>
@@ -6518,7 +6519,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>41974</v>
       </c>
@@ -6542,7 +6543,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -6560,7 +6561,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>42005</v>
       </c>
@@ -6580,7 +6581,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>42036</v>
       </c>
@@ -6600,7 +6601,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>42064</v>
       </c>
@@ -6620,7 +6621,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>42095</v>
       </c>
@@ -6640,7 +6641,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>42125</v>
       </c>
@@ -6660,7 +6661,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>42156</v>
       </c>
@@ -6680,7 +6681,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>42186</v>
       </c>
@@ -6700,7 +6701,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>42217</v>
       </c>
@@ -6720,7 +6721,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>42248</v>
       </c>
@@ -6740,7 +6741,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>42278</v>
       </c>
@@ -6760,7 +6761,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>42309</v>
       </c>
@@ -6780,7 +6781,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>42339</v>
       </c>
@@ -6804,7 +6805,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
@@ -6822,7 +6823,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>42370</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>42372</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>42401</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>49</v>
@@ -6896,7 +6897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>42430</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>42625</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>50</v>
@@ -6942,7 +6943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>42461</v>
       </c>
@@ -6962,7 +6963,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>42491</v>
       </c>
@@ -6982,7 +6983,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>42522</v>
       </c>
@@ -7002,7 +7003,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>42552</v>
       </c>
@@ -7022,7 +7023,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>42583</v>
       </c>
@@ -7042,7 +7043,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>42614</v>
       </c>
@@ -7062,7 +7063,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>42644</v>
       </c>
@@ -7082,7 +7083,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>42675</v>
       </c>
@@ -7102,7 +7103,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>42705</v>
       </c>
@@ -7122,7 +7123,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
         <v>44</v>
       </c>
@@ -7140,7 +7141,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>42736</v>
       </c>
@@ -7160,7 +7161,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>42767</v>
       </c>
@@ -7186,7 +7187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>42795</v>
       </c>
@@ -7206,7 +7207,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>42826</v>
       </c>
@@ -7230,7 +7231,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>42856</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>58</v>
@@ -7276,7 +7277,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>42887</v>
       </c>
@@ -7300,7 +7301,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>42917</v>
       </c>
@@ -7324,7 +7325,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>42948</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>64</v>
@@ -7372,7 +7373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>65</v>
@@ -7392,7 +7393,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>42979</v>
       </c>
@@ -7416,7 +7417,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>43009</v>
       </c>
@@ -7436,7 +7437,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>43040</v>
       </c>
@@ -7456,7 +7457,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>43070</v>
       </c>
@@ -7480,7 +7481,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>63</v>
       </c>
@@ -7498,7 +7499,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>43191</v>
       </c>
@@ -7520,7 +7521,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>71</v>
       </c>
@@ -7540,7 +7541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>44593</v>
       </c>
@@ -7564,7 +7565,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>48</v>
@@ -7610,7 +7611,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44812</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44910</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>89</v>
       </c>
@@ -7676,11 +7677,13 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44956</v>
-      </c>
-      <c r="B76" s="20"/>
+        <v>45042</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
@@ -7689,12 +7692,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H76" s="39"/>
+      <c r="H76" s="39">
+        <v>1</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="49">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7710,7 +7717,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7726,7 +7733,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7742,7 +7749,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7758,7 +7765,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7774,7 +7781,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7790,7 +7797,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7806,7 +7813,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7822,7 +7829,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7838,7 +7845,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7854,7 +7861,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7870,7 +7877,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7886,7 +7893,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7902,7 +7909,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7918,7 +7925,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7934,7 +7941,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7950,7 +7957,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7966,7 +7973,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7982,7 +7989,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7998,7 +8005,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8014,7 +8021,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8030,7 +8037,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8046,7 +8053,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8062,7 +8069,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8078,7 +8085,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8094,7 +8101,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8110,7 +8117,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8126,7 +8133,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8142,7 +8149,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8158,7 +8165,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8174,7 +8181,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8190,7 +8197,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8206,7 +8213,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8222,7 +8229,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8238,7 +8245,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8254,7 +8261,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8270,7 +8277,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8286,7 +8293,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8302,7 +8309,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8318,7 +8325,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8334,7 +8341,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8350,7 +8357,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8366,7 +8373,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8382,7 +8389,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8398,7 +8405,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8414,7 +8421,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8430,7 +8437,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8446,7 +8453,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8462,7 +8469,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8478,7 +8485,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8494,7 +8501,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8510,7 +8517,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8526,7 +8533,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8542,7 +8549,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8558,7 +8565,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8574,7 +8581,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8590,7 +8597,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8606,7 +8613,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8622,7 +8629,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8638,7 +8645,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8654,7 +8661,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8670,7 +8677,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8686,7 +8693,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8702,7 +8709,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
       <c r="B140" s="15"/>
       <c r="C140" s="42"/>
@@ -8733,10 +8740,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8759,7 +8766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8767,21 +8774,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8794,7 +8801,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8823,7 +8830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -8847,17 +8854,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8878,7 +8885,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8905,7 +8912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8931,7 +8938,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8957,7 +8964,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8983,7 +8990,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9009,7 +9016,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9035,7 +9042,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9061,7 +9068,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9087,7 +9094,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9107,7 +9114,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9127,7 +9134,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9147,7 +9154,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9168,7 +9175,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9189,7 +9196,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9210,7 +9217,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9231,7 +9238,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9252,7 +9259,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9273,7 +9280,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9294,7 +9301,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9315,7 +9322,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9336,7 +9343,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9357,7 +9364,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9378,7 +9385,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9399,7 +9406,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9420,7 +9427,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9441,7 +9448,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9462,7 +9469,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9483,7 +9490,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9504,7 +9511,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9525,7 +9532,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9546,7 +9553,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9567,7 +9574,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9576,7 +9583,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9585,7 +9592,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9594,7 +9601,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9603,7 +9610,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9612,7 +9619,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9621,7 +9628,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9630,7 +9637,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9639,7 +9646,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9648,7 +9655,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9657,7 +9664,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9666,7 +9673,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9675,7 +9682,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9684,7 +9691,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9693,7 +9700,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9702,7 +9709,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9711,7 +9718,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9720,7 +9727,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9729,7 +9736,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9738,7 +9745,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9747,7 +9754,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9756,7 +9763,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9765,7 +9772,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9774,7 +9781,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9783,7 +9790,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9792,7 +9799,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9801,7 +9808,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9810,7 +9817,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9819,7 +9826,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9828,7 +9835,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/HAYAG, JERMAINE JOY.xlsx
+++ b/REGULAR/OJT/NEW DONE/HAYAG, JERMAINE JOY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C28ACA-0847-4D5A-ACD2-C10AC02A4DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
   <si>
     <t>PERIOD</t>
   </si>
@@ -324,11 +323,17 @@
   <si>
     <t>3/15,30,31/2023</t>
   </si>
+  <si>
+    <t>5/21,24/2023</t>
+  </si>
+  <si>
+    <t>BDAY 5/20/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1429,7 +1434,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1477,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1541,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1601,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1667,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1730,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1828,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1887,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1952,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1995,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2070,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2256,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2322,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2380,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2446,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2502,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2577,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2615,7 +2620,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,7 +2686,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2742,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2840,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2898,7 +2903,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,25 +2969,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2994,25 +2999,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3024,13 +3029,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3039,14 +3044,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3350,7 +3355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3360,7 +3365,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3368,34 +3373,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3416,7 +3421,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3436,7 +3441,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3458,7 +3463,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3466,7 +3471,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3479,7 +3484,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3496,7 +3501,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3531,7 +3536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3540,7 +3545,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>48.75</v>
+        <v>50</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3550,12 +3555,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>63</v>
       </c>
@@ -3577,7 +3582,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3597,7 +3602,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3617,7 +3622,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3637,7 +3642,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3663,7 +3668,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3687,7 +3692,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3707,7 +3712,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3727,7 +3732,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3747,7 +3752,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3767,7 +3772,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3787,7 +3792,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3807,7 +3812,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3831,7 +3836,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>68</v>
       </c>
@@ -3849,7 +3854,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3869,7 +3874,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3889,7 +3894,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3909,7 +3914,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3933,7 +3938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>76</v>
@@ -3953,7 +3958,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3973,7 +3978,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3993,7 +3998,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -4013,7 +4018,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -4039,7 +4044,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -4065,7 +4070,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -4085,7 +4090,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -4105,7 +4110,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -4125,7 +4130,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>69</v>
       </c>
@@ -4143,7 +4148,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -4163,7 +4168,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -4183,7 +4188,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -4203,7 +4208,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -4227,7 +4232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -4247,7 +4252,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -4267,7 +4272,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -4287,7 +4292,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -4307,7 +4312,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -4327,7 +4332,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -4347,7 +4352,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -4367,7 +4372,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -4391,7 +4396,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>70</v>
       </c>
@@ -4409,7 +4414,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4429,7 +4434,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4449,7 +4454,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4469,7 +4474,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4489,7 +4494,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4509,7 +4514,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4529,7 +4534,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4549,7 +4554,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4569,7 +4574,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4589,7 +4594,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4609,7 +4614,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4629,7 +4634,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4653,7 +4658,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>71</v>
       </c>
@@ -4671,7 +4676,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4691,7 +4696,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4711,7 +4716,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="49"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4737,7 +4742,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4757,7 +4762,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4783,7 +4788,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4803,7 +4808,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4823,7 +4828,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4843,7 +4848,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4863,7 +4868,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4883,7 +4888,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -4909,7 +4914,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44896</v>
       </c>
@@ -4929,7 +4934,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>89</v>
       </c>
@@ -4947,7 +4952,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44927</v>
       </c>
@@ -4967,7 +4972,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A77,1)</f>
         <v>44958</v>
@@ -4994,7 +4999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" ref="A79:A125" si="0">EDATE(A78,1)</f>
         <v>44986</v>
@@ -5021,26 +5026,28 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="0"/>
         <v>45017</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -5059,7 +5066,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="0"/>
         <v>45078</v>
@@ -5078,7 +5085,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -5097,7 +5104,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -5116,7 +5123,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -5135,7 +5142,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -5154,7 +5161,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -5173,7 +5180,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -5192,7 +5199,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -5211,7 +5218,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="0"/>
         <v>45323</v>
@@ -5230,7 +5237,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="0"/>
         <v>45352</v>
@@ -5249,7 +5256,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="0"/>
         <v>45383</v>
@@ -5268,7 +5275,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="0"/>
         <v>45413</v>
@@ -5287,7 +5294,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="0"/>
         <v>45444</v>
@@ -5306,7 +5313,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="0"/>
         <v>45474</v>
@@ -5325,7 +5332,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="0"/>
         <v>45505</v>
@@ -5344,7 +5351,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>45536</v>
@@ -5363,7 +5370,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
         <v>45566</v>
@@ -5382,7 +5389,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
         <v>45597</v>
@@ -5401,7 +5408,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="0"/>
         <v>45627</v>
@@ -5420,7 +5427,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="0"/>
         <v>45658</v>
@@ -5439,7 +5446,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="0"/>
         <v>45689</v>
@@ -5458,7 +5465,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="0"/>
         <v>45717</v>
@@ -5477,7 +5484,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>45748</v>
@@ -5496,7 +5503,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="0"/>
         <v>45778</v>
@@ -5515,7 +5522,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="0"/>
         <v>45809</v>
@@ -5534,7 +5541,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="0"/>
         <v>45839</v>
@@ -5553,7 +5560,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="0"/>
         <v>45870</v>
@@ -5572,7 +5579,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="0"/>
         <v>45901</v>
@@ -5591,7 +5598,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="0"/>
         <v>45931</v>
@@ -5610,7 +5617,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="0"/>
         <v>45962</v>
@@ -5629,7 +5636,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
         <v>45992</v>
@@ -5648,7 +5655,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>46023</v>
@@ -5667,7 +5674,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="0"/>
         <v>46054</v>
@@ -5686,7 +5693,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="0"/>
         <v>46082</v>
@@ -5705,7 +5712,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>46113</v>
@@ -5724,7 +5731,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="0"/>
         <v>46143</v>
@@ -5743,7 +5750,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="0"/>
         <v>46174</v>
@@ -5762,7 +5769,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>46204</v>
@@ -5781,7 +5788,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>46235</v>
@@ -5800,7 +5807,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>46266</v>
@@ -5819,7 +5826,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="0"/>
         <v>46296</v>
@@ -5838,7 +5845,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>46327</v>
@@ -5857,7 +5864,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>46357</v>
@@ -5876,7 +5883,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="0"/>
         <v>46388</v>
@@ -5895,7 +5902,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5911,7 +5918,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5927,7 +5934,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5943,7 +5950,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5959,7 +5966,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5975,7 +5982,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5991,7 +5998,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -6007,7 +6014,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -6023,7 +6030,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -6039,7 +6046,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="15"/>
       <c r="C135" s="42"/>
@@ -6070,10 +6077,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6096,34 +6103,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K140"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2592" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+      <selection activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6144,7 +6151,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6162,7 +6169,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6180,7 +6187,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6188,7 +6195,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6201,7 +6208,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -6218,7 +6225,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6253,7 +6260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6262,7 +6269,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.850999999999999</v>
+        <v>26.850999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6277,7 +6284,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6299,7 +6306,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>41640</v>
       </c>
@@ -6319,7 +6326,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>41671</v>
       </c>
@@ -6339,7 +6346,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>41699</v>
       </c>
@@ -6359,7 +6366,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>41730</v>
       </c>
@@ -6379,7 +6386,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>41760</v>
       </c>
@@ -6399,7 +6406,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>41791</v>
       </c>
@@ -6419,7 +6426,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>41821</v>
       </c>
@@ -6439,7 +6446,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>41852</v>
       </c>
@@ -6459,7 +6466,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>41883</v>
       </c>
@@ -6479,7 +6486,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>41913</v>
       </c>
@@ -6499,7 +6506,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>41944</v>
       </c>
@@ -6519,7 +6526,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>41974</v>
       </c>
@@ -6543,7 +6550,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -6561,7 +6568,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>42005</v>
       </c>
@@ -6581,7 +6588,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>42036</v>
       </c>
@@ -6601,7 +6608,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>42064</v>
       </c>
@@ -6621,7 +6628,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>42095</v>
       </c>
@@ -6641,7 +6648,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>42125</v>
       </c>
@@ -6661,7 +6668,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>42156</v>
       </c>
@@ -6681,7 +6688,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>42186</v>
       </c>
@@ -6701,7 +6708,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>42217</v>
       </c>
@@ -6721,7 +6728,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>42248</v>
       </c>
@@ -6741,7 +6748,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>42278</v>
       </c>
@@ -6761,7 +6768,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>42309</v>
       </c>
@@ -6781,7 +6788,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>42339</v>
       </c>
@@ -6805,7 +6812,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
@@ -6823,7 +6830,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>42370</v>
       </c>
@@ -6849,7 +6856,7 @@
         <v>42372</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>42401</v>
       </c>
@@ -6875,7 +6882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>49</v>
@@ -6897,7 +6904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>42430</v>
       </c>
@@ -6923,7 +6930,7 @@
         <v>42625</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>50</v>
@@ -6943,7 +6950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>42461</v>
       </c>
@@ -6963,7 +6970,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>42491</v>
       </c>
@@ -6983,7 +6990,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>42522</v>
       </c>
@@ -7003,7 +7010,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>42552</v>
       </c>
@@ -7023,7 +7030,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>42583</v>
       </c>
@@ -7043,7 +7050,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>42614</v>
       </c>
@@ -7063,7 +7070,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>42644</v>
       </c>
@@ -7083,7 +7090,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>42675</v>
       </c>
@@ -7103,7 +7110,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>42705</v>
       </c>
@@ -7123,7 +7130,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>44</v>
       </c>
@@ -7141,7 +7148,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>42736</v>
       </c>
@@ -7161,7 +7168,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>42767</v>
       </c>
@@ -7187,7 +7194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>42795</v>
       </c>
@@ -7207,7 +7214,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>42826</v>
       </c>
@@ -7231,7 +7238,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>42856</v>
       </c>
@@ -7257,7 +7264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>58</v>
@@ -7277,7 +7284,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>42887</v>
       </c>
@@ -7301,7 +7308,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>42917</v>
       </c>
@@ -7325,7 +7332,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>42948</v>
       </c>
@@ -7351,7 +7358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>64</v>
@@ -7373,7 +7380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>65</v>
@@ -7393,7 +7400,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>42979</v>
       </c>
@@ -7417,7 +7424,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>43009</v>
       </c>
@@ -7437,7 +7444,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>43040</v>
       </c>
@@ -7457,7 +7464,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>43070</v>
       </c>
@@ -7481,7 +7488,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>63</v>
       </c>
@@ -7499,7 +7506,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>43191</v>
       </c>
@@ -7521,7 +7528,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>71</v>
       </c>
@@ -7541,7 +7548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>44593</v>
       </c>
@@ -7565,7 +7572,7 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -7589,7 +7596,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>48</v>
@@ -7611,7 +7618,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44812</v>
       </c>
@@ -7635,7 +7642,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44910</v>
       </c>
@@ -7659,7 +7666,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>89</v>
       </c>
@@ -7677,7 +7684,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45042</v>
       </c>
@@ -7701,11 +7708,17 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="20"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C77" s="13"/>
-      <c r="D77" s="39"/>
+      <c r="D77" s="39">
+        <v>2</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13" t="str">
@@ -7715,11 +7728,15 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
@@ -7731,9 +7748,11 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78" s="49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7749,7 +7768,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7765,7 +7784,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7781,7 +7800,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7797,7 +7816,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7813,7 +7832,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7829,7 +7848,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7845,7 +7864,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7861,7 +7880,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7877,7 +7896,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7893,7 +7912,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7909,7 +7928,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7925,7 +7944,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7941,7 +7960,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7957,7 +7976,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7973,7 +7992,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7989,7 +8008,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -8005,7 +8024,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8021,7 +8040,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8037,7 +8056,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8053,7 +8072,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8069,7 +8088,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8085,7 +8104,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8101,7 +8120,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8117,7 +8136,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8133,7 +8152,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8149,7 +8168,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8165,7 +8184,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8181,7 +8200,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8197,7 +8216,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8213,7 +8232,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8229,7 +8248,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8245,7 +8264,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8261,7 +8280,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8277,7 +8296,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8293,7 +8312,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8309,7 +8328,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8325,7 +8344,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8341,7 +8360,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8357,7 +8376,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8373,7 +8392,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8389,7 +8408,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8405,7 +8424,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8421,7 +8440,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8437,7 +8456,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8453,7 +8472,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8469,7 +8488,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8485,7 +8504,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8501,7 +8520,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8517,7 +8536,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8533,7 +8552,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8549,7 +8568,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8565,7 +8584,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8581,7 +8600,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8597,7 +8616,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8613,7 +8632,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8629,7 +8648,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8645,7 +8664,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8661,7 +8680,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8677,7 +8696,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8693,7 +8712,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8709,7 +8728,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41"/>
       <c r="B140" s="15"/>
       <c r="C140" s="42"/>
@@ -8740,10 +8759,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8766,7 +8785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8774,21 +8793,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8801,7 +8820,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8830,7 +8849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -8854,17 +8873,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8885,7 +8904,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8912,7 +8931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8938,7 +8957,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8964,7 +8983,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8990,7 +9009,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9016,7 +9035,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9042,7 +9061,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9068,7 +9087,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9094,7 +9113,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9114,7 +9133,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9134,7 +9153,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9154,7 +9173,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9175,7 +9194,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9196,7 +9215,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9217,7 +9236,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9238,7 +9257,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9259,7 +9278,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9280,7 +9299,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9301,7 +9320,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9322,7 +9341,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9343,7 +9362,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9364,7 +9383,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9385,7 +9404,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9406,7 +9425,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9427,7 +9446,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9448,7 +9467,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9469,7 +9488,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9490,7 +9509,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9511,7 +9530,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9532,7 +9551,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9553,7 +9572,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9574,7 +9593,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9583,7 +9602,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9592,7 +9611,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9601,7 +9620,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9610,7 +9629,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9619,7 +9638,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9628,7 +9647,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9637,7 +9656,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9646,7 +9665,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9655,7 +9674,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9664,7 +9683,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9673,7 +9692,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9682,7 +9701,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9691,7 +9710,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9700,7 +9719,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9709,7 +9728,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9718,7 +9737,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9727,7 +9746,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9736,7 +9755,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9745,7 +9764,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9754,7 +9773,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9763,7 +9782,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9772,7 +9791,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9781,7 +9800,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9790,7 +9809,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9799,7 +9818,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9808,7 +9827,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9817,7 +9836,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9826,7 +9845,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9835,7 +9854,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/HAYAG, JERMAINE JOY.xlsx
+++ b/REGULAR/OJT/NEW DONE/HAYAG, JERMAINE JOY.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>BDAY 5/20/2023</t>
+  </si>
+  <si>
+    <t>6/1,2,5/2023</t>
   </si>
 </sst>
 </file>
@@ -712,6 +715,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -724,20 +736,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1434,7 +1437,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1480,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1544,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1604,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1670,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1733,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1831,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1890,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1955,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +1998,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2073,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2259,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2325,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2383,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2449,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2505,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2580,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2623,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2689,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2745,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2843,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2903,7 +2906,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3412,14 +3415,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3432,14 +3435,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3452,16 +3455,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3487,18 +3490,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6064,17 +6067,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6110,9 +6113,9 @@
   <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6142,14 +6145,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6160,14 +6163,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6178,14 +6181,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6211,18 +6214,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6279,7 +6282,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>32.5</v>
+        <v>29.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7753,8 +7756,12 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
@@ -7763,10 +7770,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H79" s="39"/>
+      <c r="H79" s="39">
+        <v>3</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
